--- a/data/trans_orig/P6516-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F0CEEC-6157-4C3C-92AE-AE0C8252FD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FD38A5-9DEE-4667-9F31-65E4E6BAAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BCC3A94-ECD6-4409-B892-CB7F6B3F13DA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D886B94-3499-4853-88D5-F30BEB4CE826}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,88 +74,88 @@
     <t>20,42%</t>
   </si>
   <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>24,47%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>43,64%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,712 +197,703 @@
     <t>29,2%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>17,3%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>9,92%</t>
   </si>
   <si>
     <t>15,06%</t>
@@ -911,130 +902,133 @@
     <t>28,75%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>46,77%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>31,04%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>16,61%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1449,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1461BA17-386F-474F-B1FE-DA5FC93DA0A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A22E9E-1993-4CD1-BF96-C8335D08EAC0}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2105,7 +2099,7 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -2120,10 +2114,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2132,13 @@
         <v>20689</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -2153,13 +2147,13 @@
         <v>16440</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
@@ -2168,13 +2162,13 @@
         <v>37129</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,10 +2183,10 @@
         <v>36643</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -2222,10 +2216,10 @@
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2234,13 @@
         <v>81077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -2255,13 +2249,13 @@
         <v>41183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -2270,13 +2264,13 @@
         <v>122260</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2326,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2338,13 @@
         <v>36948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2359,13 +2353,13 @@
         <v>17659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -2374,13 +2368,13 @@
         <v>54606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2389,13 @@
         <v>39344</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2410,13 +2404,13 @@
         <v>21843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2425,7 +2419,7 @@
         <v>61187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>139</v>
@@ -2464,10 +2458,10 @@
         <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -2476,13 +2470,13 @@
         <v>66774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2491,13 @@
         <v>101583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -2512,13 +2506,13 @@
         <v>75478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -2527,13 +2521,13 @@
         <v>177062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2583,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2601,13 +2595,13 @@
         <v>59496</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2616,13 +2610,13 @@
         <v>25124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -2631,13 +2625,13 @@
         <v>84620</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2646,13 @@
         <v>18308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2667,13 +2661,13 @@
         <v>3909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2682,13 +2676,13 @@
         <v>22216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2697,13 @@
         <v>6674</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2718,13 +2712,13 @@
         <v>2014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2733,13 +2727,13 @@
         <v>8688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2748,13 @@
         <v>27700</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -2769,13 +2763,13 @@
         <v>19379</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="M27" s="7">
         <v>46</v>
@@ -2784,13 +2778,13 @@
         <v>47079</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2840,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2852,13 @@
         <v>29881</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2873,13 +2867,13 @@
         <v>17824</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2888,13 +2882,13 @@
         <v>47705</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2903,13 @@
         <v>27858</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2924,13 +2918,13 @@
         <v>12272</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -2939,13 +2933,13 @@
         <v>40130</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2954,13 @@
         <v>40218</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2975,13 +2969,13 @@
         <v>13486</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -2990,13 +2984,13 @@
         <v>53703</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3005,13 @@
         <v>58060</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -3169,10 +3163,10 @@
         <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -3181,13 +3175,13 @@
         <v>30406</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -3217,28 +3211,28 @@
         <v>59930</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
       </c>
       <c r="I36" s="7">
-        <v>23668</v>
+        <v>23669</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -3247,10 +3241,10 @@
         <v>83599</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>37</v>
@@ -3268,28 +3262,28 @@
         <v>127806</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
       </c>
       <c r="I37" s="7">
-        <v>81806</v>
+        <v>81807</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>203</v>
@@ -3301,10 +3295,10 @@
         <v>226</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3325,7 @@
         <v>167</v>
       </c>
       <c r="I38" s="7">
-        <v>179553</v>
+        <v>179554</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3360,7 +3354,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3366,13 @@
         <v>201941</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>74</v>
@@ -3387,13 +3381,13 @@
         <v>79391</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>271</v>
@@ -3402,13 +3396,13 @@
         <v>281332</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3417,13 @@
         <v>65707</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
@@ -3438,13 +3432,13 @@
         <v>24781</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>87</v>
@@ -3453,13 +3447,13 @@
         <v>90488</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3468,13 @@
         <v>65224</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -3489,13 +3483,13 @@
         <v>22086</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -3504,13 +3498,13 @@
         <v>87310</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3519,13 @@
         <v>134294</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>108</v>
@@ -3540,13 +3534,13 @@
         <v>110921</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>237</v>
@@ -3555,13 +3549,13 @@
         <v>245215</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3623,13 @@
         <v>572486</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H44" s="7">
         <v>239</v>
@@ -3644,13 +3638,13 @@
         <v>254878</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M44" s="7">
         <v>782</v>
@@ -3659,13 +3653,13 @@
         <v>827363</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3674,13 @@
         <v>282935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>120</v>
@@ -3695,13 +3689,13 @@
         <v>130824</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>397</v>
@@ -3710,13 +3704,13 @@
         <v>413760</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3725,13 @@
         <v>342480</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>127</v>
@@ -3746,13 +3740,13 @@
         <v>130898</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>459</v>
@@ -3761,13 +3755,13 @@
         <v>473378</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3776,13 @@
         <v>707513</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>493</v>
@@ -3797,13 +3791,13 @@
         <v>506843</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>1165</v>
@@ -3812,13 +3806,13 @@
         <v>1214356</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3868,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FD38A5-9DEE-4667-9F31-65E4E6BAAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DD3AF9-B4ED-469B-A2CC-3660BFCD0FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D886B94-3499-4853-88D5-F30BEB4CE826}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBFB1ED5-93B1-4AFA-A002-6F9A63B1E0E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="336">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,901 +134,913 @@
     <t>21,29%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>11,31%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>14,88%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>24,73%</t>
   </si>
   <si>
     <t>46,77%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>12,87%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>14,81%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A22E9E-1993-4CD1-BF96-C8335D08EAC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D032354B-2AA8-45A8-957F-06DBEA2B70AB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1839,13 +1851,13 @@
         <v>33864</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
@@ -1854,13 +1866,13 @@
         <v>112841</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1887,13 @@
         <v>33774</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1890,13 +1902,13 @@
         <v>12322</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -1905,13 +1917,13 @@
         <v>46096</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1938,13 @@
         <v>52914</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1941,13 +1953,13 @@
         <v>12653</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -1956,13 +1968,13 @@
         <v>65567</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1989,13 @@
         <v>104816</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -1992,13 +2004,13 @@
         <v>71992</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -2007,13 +2019,13 @@
         <v>176808</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2081,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2093,13 @@
         <v>37294</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2096,10 +2108,10 @@
         <v>20703</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -2114,7 +2126,7 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -2419,13 +2431,13 @@
         <v>61187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2452,13 @@
         <v>45669</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -2455,13 +2467,13 @@
         <v>21105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -2470,13 +2482,13 @@
         <v>66774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2503,13 @@
         <v>101583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -2506,13 +2518,13 @@
         <v>75478</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -2521,13 +2533,13 @@
         <v>177062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2595,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2607,13 @@
         <v>59496</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2610,13 +2622,13 @@
         <v>25124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -2625,10 +2637,10 @@
         <v>84620</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>168</v>
@@ -2679,10 +2691,10 @@
         <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2709,13 @@
         <v>6674</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2712,13 +2724,13 @@
         <v>2014</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2727,7 +2739,7 @@
         <v>8688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>184</v>
@@ -2769,7 +2781,7 @@
         <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>46</v>
@@ -2778,13 +2790,13 @@
         <v>47079</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2852,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2852,13 +2864,13 @@
         <v>29881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2867,13 +2879,13 @@
         <v>17824</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2882,13 +2894,13 @@
         <v>47705</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2915,13 @@
         <v>27858</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2918,13 +2930,13 @@
         <v>12272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -2933,13 +2945,13 @@
         <v>40130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2966,13 @@
         <v>40218</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2969,13 +2981,13 @@
         <v>13486</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -2984,13 +2996,13 @@
         <v>53703</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3017,13 @@
         <v>58060</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -3020,13 +3032,13 @@
         <v>39235</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -3035,13 +3047,13 @@
         <v>97295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3109,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3121,13 @@
         <v>94169</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>39</v>
@@ -3124,13 +3136,13 @@
         <v>43673</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>124</v>
@@ -3139,13 +3151,13 @@
         <v>137842</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3172,13 @@
         <v>53023</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -3175,13 +3187,13 @@
         <v>30406</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -3190,13 +3202,13 @@
         <v>83429</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,28 +3223,28 @@
         <v>59930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
       </c>
       <c r="I36" s="7">
-        <v>23669</v>
+        <v>23668</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -3241,13 +3253,13 @@
         <v>83599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,28 +3274,28 @@
         <v>127806</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
       </c>
       <c r="I37" s="7">
-        <v>81807</v>
+        <v>81806</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>203</v>
@@ -3292,13 +3304,13 @@
         <v>209613</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3337,7 @@
         <v>167</v>
       </c>
       <c r="I38" s="7">
-        <v>179554</v>
+        <v>179553</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3354,7 +3366,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3366,13 +3378,13 @@
         <v>201941</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H39" s="7">
         <v>74</v>
@@ -3381,13 +3393,13 @@
         <v>79391</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>271</v>
@@ -3396,13 +3408,13 @@
         <v>281332</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3429,13 @@
         <v>65707</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
@@ -3432,13 +3444,13 @@
         <v>24781</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>87</v>
@@ -3447,13 +3459,13 @@
         <v>90488</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3480,13 @@
         <v>65224</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -3483,13 +3495,13 @@
         <v>22086</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -3498,13 +3510,13 @@
         <v>87310</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3531,13 @@
         <v>134294</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="H42" s="7">
         <v>108</v>
@@ -3534,13 +3546,13 @@
         <v>110921</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>237</v>
@@ -3549,13 +3561,13 @@
         <v>245215</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3635,13 @@
         <v>572486</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H44" s="7">
         <v>239</v>
@@ -3638,13 +3650,13 @@
         <v>254878</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M44" s="7">
         <v>782</v>
@@ -3653,13 +3665,13 @@
         <v>827363</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3686,13 @@
         <v>282935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H45" s="7">
         <v>120</v>
@@ -3689,13 +3701,13 @@
         <v>130824</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M45" s="7">
         <v>397</v>
@@ -3704,13 +3716,13 @@
         <v>413760</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3737,13 @@
         <v>342480</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>127</v>
@@ -3740,13 +3752,13 @@
         <v>130898</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>459</v>
@@ -3755,13 +3767,13 @@
         <v>473378</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3788,13 @@
         <v>707513</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>493</v>
@@ -3791,13 +3803,13 @@
         <v>506843</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>1165</v>
@@ -3806,13 +3818,13 @@
         <v>1214356</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3880,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DD3AF9-B4ED-469B-A2CC-3660BFCD0FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F954CE-0E68-43A8-98FC-CDD5D79B1F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBFB1ED5-93B1-4AFA-A002-6F9A63B1E0E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08F7BB3B-1DFC-4E09-9EB8-2AF02A60D862}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,277 +134,274 @@
     <t>21,29%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>55,03%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>53,86%</t>
   </si>
   <si>
     <t>43,55%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -413,424 +410,418 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>20,09%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>12,91%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -839,28 +830,28 @@
     <t>43,23%</t>
   </si>
   <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>39,94%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
   </si>
   <si>
     <t>14,06%</t>
@@ -869,178 +860,181 @@
     <t>11,14%</t>
   </si>
   <si>
-    <t>17,57%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>24,73%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>46,77%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>31,04%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>12,87%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,81%</t>
+    <t>17,7%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1455,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D032354B-2AA8-45A8-957F-06DBEA2B70AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73498A-9727-421C-8200-1506E2230FC8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1851,13 +1845,13 @@
         <v>33864</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
@@ -1866,13 +1860,13 @@
         <v>112841</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1881,13 @@
         <v>33774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1902,13 +1896,13 @@
         <v>12322</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -1917,13 +1911,13 @@
         <v>46096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1932,13 @@
         <v>52914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1953,13 +1947,13 @@
         <v>12653</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -1968,13 +1962,13 @@
         <v>65567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1983,13 @@
         <v>104816</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -2004,13 +1998,13 @@
         <v>71992</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -2019,13 +2013,13 @@
         <v>176808</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,7 +2075,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2093,13 +2087,13 @@
         <v>37294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2108,10 +2102,10 @@
         <v>20703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -2126,10 +2120,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2138,13 @@
         <v>20689</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -2159,13 +2153,13 @@
         <v>16440</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
@@ -2174,13 +2168,13 @@
         <v>37129</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,10 +2189,10 @@
         <v>36643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -2228,10 +2222,10 @@
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2240,13 @@
         <v>81077</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -2261,13 +2255,13 @@
         <v>41183</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -2276,13 +2270,13 @@
         <v>122260</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2332,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2350,13 +2344,13 @@
         <v>36948</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2365,13 +2359,13 @@
         <v>17659</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -2380,13 +2374,13 @@
         <v>54606</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2395,13 @@
         <v>39344</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2416,13 +2410,13 @@
         <v>21843</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -2431,13 +2425,13 @@
         <v>61187</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2446,13 @@
         <v>45669</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -2467,13 +2461,13 @@
         <v>21105</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>66</v>
@@ -2482,13 +2476,13 @@
         <v>66774</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2497,13 @@
         <v>101583</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -2518,13 +2512,13 @@
         <v>75478</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -2533,13 +2527,13 @@
         <v>177062</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,7 +2589,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2607,13 +2601,13 @@
         <v>59496</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2622,13 +2616,13 @@
         <v>25124</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -2637,13 +2631,13 @@
         <v>84620</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2652,13 @@
         <v>18308</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2673,13 +2667,13 @@
         <v>3909</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2688,13 +2682,13 @@
         <v>22216</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2703,13 @@
         <v>6674</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2724,13 +2718,13 @@
         <v>2014</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2739,13 +2733,13 @@
         <v>8688</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2754,13 @@
         <v>27700</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -2775,13 +2769,13 @@
         <v>19379</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>46</v>
@@ -2790,13 +2784,13 @@
         <v>47079</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2864,13 +2858,13 @@
         <v>29881</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2879,13 +2873,13 @@
         <v>17824</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -2894,13 +2888,13 @@
         <v>47705</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2909,13 @@
         <v>27858</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2930,13 +2924,13 @@
         <v>12272</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -2945,13 +2939,13 @@
         <v>40130</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2960,13 @@
         <v>40218</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2981,13 +2975,13 @@
         <v>13486</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -2996,13 +2990,13 @@
         <v>53703</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3011,13 @@
         <v>58060</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -3032,13 +3026,13 @@
         <v>39235</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -3047,13 +3041,13 @@
         <v>97295</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3103,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3121,13 +3115,13 @@
         <v>94169</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>39</v>
@@ -3136,13 +3130,13 @@
         <v>43673</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>124</v>
@@ -3151,13 +3145,13 @@
         <v>137842</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3166,13 @@
         <v>53023</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -3187,13 +3181,13 @@
         <v>30406</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -3202,13 +3196,13 @@
         <v>83429</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3217,13 @@
         <v>59930</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -3238,13 +3232,13 @@
         <v>23668</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -3253,13 +3247,13 @@
         <v>83599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3268,13 @@
         <v>127806</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>78</v>
@@ -3289,13 +3283,13 @@
         <v>81806</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>203</v>
@@ -3304,13 +3298,13 @@
         <v>209613</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3360,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3378,13 +3372,13 @@
         <v>201941</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>74</v>
@@ -3393,13 +3387,13 @@
         <v>79391</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>271</v>
@@ -3408,13 +3402,13 @@
         <v>281332</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3423,13 @@
         <v>65707</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
@@ -3444,13 +3438,13 @@
         <v>24781</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>87</v>
@@ -3459,13 +3453,13 @@
         <v>90488</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3474,13 @@
         <v>65224</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -3495,13 +3489,13 @@
         <v>22086</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -3510,13 +3504,13 @@
         <v>87310</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3525,13 @@
         <v>134294</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>108</v>
@@ -3546,13 +3540,13 @@
         <v>110921</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>237</v>
@@ -3561,13 +3555,13 @@
         <v>245215</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3629,13 @@
         <v>572486</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H44" s="7">
         <v>239</v>
@@ -3650,13 +3644,13 @@
         <v>254878</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M44" s="7">
         <v>782</v>
@@ -3665,13 +3659,13 @@
         <v>827363</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3680,13 @@
         <v>282935</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H45" s="7">
         <v>120</v>
@@ -3701,13 +3695,13 @@
         <v>130824</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M45" s="7">
         <v>397</v>
@@ -3716,13 +3710,13 @@
         <v>413760</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3731,13 @@
         <v>342480</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>127</v>
@@ -3752,13 +3746,13 @@
         <v>130898</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>459</v>
@@ -3767,13 +3761,13 @@
         <v>473378</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3782,13 @@
         <v>707513</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>493</v>
@@ -3803,13 +3797,13 @@
         <v>506843</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>1165</v>
@@ -3818,13 +3812,13 @@
         <v>1214356</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3874,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F954CE-0E68-43A8-98FC-CDD5D79B1F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86703955-6AA2-4844-ABB5-A6199C5612CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08F7BB3B-1DFC-4E09-9EB8-2AF02A60D862}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{33F6BE97-92E6-4B29-96D2-A6E043FDFC55}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73498A-9727-421C-8200-1506E2230FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A6F631-BD06-4A18-95EB-2D209DCA081C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
